--- a/olympics_chronology.xlsx
+++ b/olympics_chronology.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyan\olympics-economy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{593414CA-F01A-4D1B-9BF9-56706D6E46F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D72FFC-5D36-4BDA-9153-864120935438}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0DDECA7F-0C39-4CA1-8DC0-610118AD108E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$26</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Year</t>
   </si>
@@ -93,12 +96,6 @@
     <t>Los Angeles</t>
   </si>
   <si>
-    <t>Moscow</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
     <t>Montreal</t>
   </si>
   <si>
@@ -115,54 +112,6 @@
   </si>
   <si>
     <t>Mexico</t>
-  </si>
-  <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Rome</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Helsinki</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>Amsterdam</t>
-  </si>
-  <si>
-    <t>Neitherland</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Antwerp</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Stockholm</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>St. Louis</t>
   </si>
 </sst>
 </file>
@@ -514,15 +463,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A42D1A-5DD9-4028-A3F3-8504A1734F8C}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -637,7 +587,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -648,7 +598,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -659,7 +609,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -668,172 +618,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>1968</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>1964</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>1960</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>1952</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>1948</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>1936</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>1932</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>1928</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>1924</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>1920</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>1912</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>1908</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>1904</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>1900</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>1896</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:C26" xr:uid="{22797865-FC42-454F-8E7E-5C9714BDFBEA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>